--- a/Industry/201612-201908/HKD/MILLION/Analysis_115_5 - Cosmetics and Toiletries_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_115_5 - Cosmetics and Toiletries_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1152" yWindow="1152"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -25928,6 +25929,653 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14832.428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18672.197</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15782.319</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25227.903</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35.109</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19067.455</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20.815</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10965.758</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14363.235</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.983</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12053.246</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19520.581</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35.907</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15463.521</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28.293</v>
+      </c>
+      <c r="J3" t="n">
+        <v>73.931</v>
+      </c>
+      <c r="K3" t="n">
+        <v>76.923</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76.372</v>
+      </c>
+      <c r="M3" t="n">
+        <v>77.377</v>
+      </c>
+      <c r="N3" t="n">
+        <v>81.099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1502.712</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1787.28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.937</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1648.075</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2359.171</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.998</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1297.871</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-21.249</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.131</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.571999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.443</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.351000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="n">
+        <v>748.338</v>
+      </c>
+      <c r="C5" t="n">
+        <v>711.096</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.977</v>
+      </c>
+      <c r="E5" t="n">
+        <v>660.537</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1030.001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44.847</v>
+      </c>
+      <c r="H5" t="n">
+        <v>758.566</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.841</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.045</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.185</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.083</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="n">
+        <v>400.619</v>
+      </c>
+      <c r="C6" t="n">
+        <v>418.038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="E6" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>541.532</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29.542</v>
+      </c>
+      <c r="H6" t="n">
+        <v>389.508</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.264</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.701</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="n">
+        <v>293.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>429.599</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.142</v>
+      </c>
+      <c r="E7" t="n">
+        <v>305.015</v>
+      </c>
+      <c r="F7" t="n">
+        <v>547.0069999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>370.947</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.616</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="n">
+        <v>368.724</v>
+      </c>
+      <c r="C8" t="n">
+        <v>434.604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.867</v>
+      </c>
+      <c r="E8" t="n">
+        <v>356.749</v>
+      </c>
+      <c r="F8" t="n">
+        <v>551.7670000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26.959</v>
+      </c>
+      <c r="H8" t="n">
+        <v>327.13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-8.303000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="n">
+        <v>306.793</v>
+      </c>
+      <c r="C9" t="n">
+        <v>326.591</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.453</v>
+      </c>
+      <c r="E9" t="n">
+        <v>249.441</v>
+      </c>
+      <c r="F9" t="n">
+        <v>407.639</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.817</v>
+      </c>
+      <c r="H9" t="n">
+        <v>263.38</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.588</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76.529</v>
+      </c>
+      <c r="C10" t="n">
+        <v>85.685</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.965</v>
+      </c>
+      <c r="E10" t="n">
+        <v>52.883</v>
+      </c>
+      <c r="F10" t="n">
+        <v>88.54900000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64.744</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.463</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.191</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.634</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.512</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48.156</v>
+      </c>
+      <c r="G11" t="n">
+        <v>83.867</v>
+      </c>
+      <c r="H11" t="n">
+        <v>49.081</v>
+      </c>
+      <c r="I11" t="n">
+        <v>118.021</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="n">
+        <v>88.693</v>
+      </c>
+      <c r="C12" t="n">
+        <v>45.369</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-48.847</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31.821</v>
+      </c>
+      <c r="F12" t="n">
+        <v>45.514</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>40.657</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27.769</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="n">
+        <v>43.979</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.542</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5.542</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39.198</v>
+      </c>
+      <c r="F13" t="n">
+        <v>73.441</v>
+      </c>
+      <c r="G13" t="n">
+        <v>76.78700000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.859</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-66.495</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.593</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.545</v>
+      </c>
+      <c r="G14" t="n">
+        <v>389.994</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-71.541</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="K1" s="2" t="s">
